--- a/premise/data/additional_inventories/lci-home-batteries.xlsx
+++ b/premise/data/additional_inventories/lci-home-batteries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/additional_inventories/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1608FFC7-7818-024F-AC01-A4F253AB1313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB925AE-A478-1F44-ACA2-E7EB6EA75056}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="760" windowWidth="28580" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34400" yWindow="-480" windowWidth="28580" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="lci" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="143">
   <si>
     <t>name</t>
   </si>
@@ -439,12 +439,45 @@
   <si>
     <t>stationary battery</t>
   </si>
+  <si>
+    <t>production amount</t>
+  </si>
+  <si>
+    <t>electricity, high voltage</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>market for electricity, low voltage</t>
+  </si>
+  <si>
+    <t>electricity, low voltage</t>
+  </si>
+  <si>
+    <t>Accounts for the round trip efficiency of 81%.</t>
+  </si>
+  <si>
+    <t>Accounts or standby electricity consumption.</t>
+  </si>
+  <si>
+    <t>Home storage system</t>
+  </si>
+  <si>
+    <t>electricity supply, from stationary 19.5 kWh NMC battery</t>
+  </si>
+  <si>
+    <t>1 kWh of electricity discharged from a stationary battery. Accounts for charge and discharge losses: 19%. The original dataset is a 19.5 kWh home storage system, using NMC811 cells. The system has a stand-by consumption of 22 W over 6000 hours per year. Assumes lifetime of 2500 charge-discharge cycles over 13 years, and a maximum depth of discharge of 80%. In total, the system delivers 2500 [cycles] x 80% x 19.5 [Wh] = 39000 kWh.</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -460,16 +493,50 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -477,23 +544,56 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 11 3" xfId="2" xr:uid="{926B8F84-56CF-9742-923C-58976E27515A}"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{7CB59D07-984D-0E43-A918-35C20EB13296}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -795,2977 +895,3228 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G186"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="55.5" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="55.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="19.83203125" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="K3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+      <c r="K5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+      <c r="K6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+      <c r="K7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="16"/>
+      <c r="K8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="17"/>
+      <c r="K9" s="9"/>
+    </row>
+    <row r="10" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="9"/>
+    </row>
+    <row r="11" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="str">
+        <f>B3</f>
+        <v>electricity supply, from stationary 19.5 kWh NMC battery</v>
+      </c>
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" t="str">
+        <f>B7</f>
+        <v>CH</v>
+      </c>
+      <c r="D11" t="s">
+        <v>77</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>133</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="20"/>
+      <c r="K11" s="9"/>
+    </row>
+    <row r="12" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B12" s="18">
+        <f>1*1.19</f>
+        <v>1.19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="I12" s="20"/>
+    </row>
+    <row r="13" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="18">
+        <f>((22/1000)*6000*13)/(2500*19.5*0.8)</f>
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D13" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F13" t="s">
+        <v>136</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="I13" s="20"/>
+    </row>
+    <row r="14" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" s="18">
+        <f>1/(2500*80%*19.5)</f>
+        <v>2.564102564102564E-5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F14" t="s">
+        <v>124</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="18"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B18" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B20" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" t="str">
-        <f>B3</f>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="str">
+        <f>B16</f>
         <v>home electricity storage system, 14.4 kWh, LFP battery</v>
       </c>
-      <c r="B11" t="str">
-        <f>B4</f>
+      <c r="B24" s="1" t="str">
+        <f>B17</f>
         <v>home electricity storage system</v>
       </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" t="str">
-        <f>B7</f>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>B20</f>
         <v>unit</v>
       </c>
-      <c r="E11" t="str">
-        <f>B5</f>
+      <c r="E24" s="1" t="str">
+        <f>B18</f>
         <v>RER</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F24" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B25" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C12">
+      <c r="C25" s="1">
         <v>14.4</v>
       </c>
-      <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D25" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12" t="s">
-        <v>89</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F25" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C13">
+      <c r="C26" s="1">
         <v>8.64</v>
       </c>
-      <c r="D13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="D26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B27" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C27" s="1">
         <v>34.56</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D27" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E27" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F27" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C15">
+      <c r="C28" s="1">
         <v>0.57600000000000007</v>
       </c>
-      <c r="D15" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>89</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="D28" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C16">
+      <c r="C29" s="1">
         <v>83.52</v>
       </c>
-      <c r="D16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" t="s">
+      <c r="D29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16" t="s">
-        <v>89</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B30" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C17">
+      <c r="C30" s="1">
         <v>17.28</v>
       </c>
-      <c r="D17" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F17" t="s">
-        <v>89</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="F30" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B31" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C18">
+      <c r="C31" s="1">
         <v>161.28000000000003</v>
       </c>
-      <c r="D18" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F18" t="s">
-        <v>89</v>
-      </c>
-      <c r="G18" t="s">
+      <c r="F31" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B32" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C19">
+      <c r="C32" s="1">
         <v>5.76</v>
       </c>
-      <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F19" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" t="s">
+      <c r="F32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B33" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C20">
+      <c r="C33" s="1">
         <v>86.399999999999991</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D33" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F20" t="s">
-        <v>89</v>
-      </c>
-      <c r="G20" t="s">
+      <c r="F33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B35" s="2" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B37" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B39" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E42" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <f>B22</f>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="str">
+        <f>B35</f>
         <v>home electricity storage system, 19.5 kWh, NMC811 battery</v>
       </c>
-      <c r="B30" t="str">
-        <f>B23</f>
+      <c r="B43" s="1" t="str">
+        <f>B36</f>
         <v>home electricity storage system</v>
       </c>
-      <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30" t="str">
-        <f>B26</f>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f>B39</f>
         <v>unit</v>
       </c>
-      <c r="E30" t="str">
-        <f>B24</f>
+      <c r="E43" s="1" t="str">
+        <f>B37</f>
         <v>RER</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F43" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C31">
+      <c r="C44" s="1">
         <v>14.4</v>
       </c>
-      <c r="D31" t="s">
-        <v>76</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D44" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E44" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F31" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F44" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G44" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C32">
+      <c r="C45" s="1">
         <v>8.64</v>
       </c>
-      <c r="D32" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" t="s">
-        <v>14</v>
-      </c>
-      <c r="F32" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" t="s">
+      <c r="D45" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B46" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C33">
+      <c r="C46" s="1">
         <v>34.56</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D46" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E46" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F33" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" t="s">
+      <c r="F46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G46" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B47" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C34">
+      <c r="C47" s="1">
         <v>0.57600000000000007</v>
       </c>
-      <c r="D34" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" t="s">
+      <c r="D47" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B48" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C35">
+      <c r="C48" s="1">
         <v>83.52</v>
       </c>
-      <c r="D35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" t="s">
+      <c r="D48" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E48" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F48" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B49" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C36">
+      <c r="C49" s="1">
         <v>17.28</v>
       </c>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D49" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E49" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F36" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="F49" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B50" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C37">
+      <c r="C50" s="1">
         <v>161.28000000000003</v>
       </c>
-      <c r="D37" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" t="s">
+      <c r="D50" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F37" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="F50" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B51" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C38">
+      <c r="C51" s="1">
         <v>5.76</v>
       </c>
-      <c r="D38" t="s">
-        <v>76</v>
-      </c>
-      <c r="E38" t="s">
+      <c r="D51" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F38" t="s">
-        <v>89</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B52" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C39">
+      <c r="C52" s="1">
         <v>86.399999999999991</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D52" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E52" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F39" t="s">
-        <v>89</v>
-      </c>
-      <c r="G39" t="s">
+      <c r="F52" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="3" t="s">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B54" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>1</v>
-      </c>
-      <c r="B42" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B56" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+      <c r="B57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B45" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+      <c r="B58" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B59" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="3" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B48" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48" s="3" t="s">
+      <c r="B61" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="3" t="s">
+      <c r="D61" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F61" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G61" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A49" t="str">
-        <f>B41</f>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="str">
+        <f>B54</f>
         <v>ampere charger production</v>
       </c>
-      <c r="B49" t="str">
-        <f>B42</f>
+      <c r="B62" s="1" t="str">
+        <f>B55</f>
         <v>ampere charger for home storage system</v>
       </c>
-      <c r="C49">
-        <v>1</v>
-      </c>
-      <c r="D49" t="str">
-        <f>B45</f>
+      <c r="C62" s="1">
+        <v>1</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f>B58</f>
         <v>kilogram</v>
       </c>
-      <c r="E49" t="str">
-        <f>B43</f>
+      <c r="E62" s="1" t="str">
+        <f>B56</f>
         <v>RER</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F62" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B63" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C50" s="5">
+      <c r="C63" s="3">
         <v>0.15</v>
       </c>
-      <c r="D50" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" t="s">
+      <c r="D63" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B64" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C51" s="5">
+      <c r="C64" s="3">
         <v>0.02</v>
       </c>
-      <c r="D51" t="s">
-        <v>76</v>
-      </c>
-      <c r="E51" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="D64" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G64" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B65" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C52" s="5">
+      <c r="C65" s="3">
         <v>0.01</v>
       </c>
-      <c r="D52" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" t="s">
-        <v>14</v>
-      </c>
-      <c r="F52" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" t="s">
+      <c r="D65" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B66" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="5">
+      <c r="C66" s="3">
         <v>0.01</v>
       </c>
-      <c r="D53" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" t="s">
-        <v>14</v>
-      </c>
-      <c r="F53" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" t="s">
+      <c r="D66" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B67" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C54" s="5">
+      <c r="C67" s="3">
         <v>0.01</v>
       </c>
-      <c r="D54" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" t="s">
-        <v>14</v>
-      </c>
-      <c r="F54" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" t="s">
+      <c r="D67" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G67" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B68" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C55" s="5">
+      <c r="C68" s="3">
         <v>0.02</v>
       </c>
-      <c r="D55" t="s">
-        <v>76</v>
-      </c>
-      <c r="E55" t="s">
-        <v>14</v>
-      </c>
-      <c r="F55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" t="s">
+      <c r="D68" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G68" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B69" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C56" s="6">
+      <c r="C69" s="1">
         <v>0.08</v>
       </c>
-      <c r="D56" t="s">
-        <v>76</v>
-      </c>
-      <c r="E56" t="s">
+      <c r="D69" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F56" t="s">
-        <v>89</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="F69" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G69" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B70" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="6">
+      <c r="C70" s="1">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D57" t="s">
-        <v>76</v>
-      </c>
-      <c r="E57" t="s">
-        <v>14</v>
-      </c>
-      <c r="F57" t="s">
-        <v>89</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="D70" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B71" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C58" s="6">
+      <c r="C71" s="1">
         <v>0.15</v>
       </c>
-      <c r="D58" t="s">
-        <v>76</v>
-      </c>
-      <c r="E58" t="s">
-        <v>14</v>
-      </c>
-      <c r="F58" t="s">
-        <v>89</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="D71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G71" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B72" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="6">
+      <c r="C72" s="1">
         <v>0.51</v>
       </c>
-      <c r="D59" t="s">
-        <v>76</v>
-      </c>
-      <c r="E59" t="s">
-        <v>14</v>
-      </c>
-      <c r="F59" t="s">
-        <v>89</v>
-      </c>
-      <c r="G59" t="s">
+      <c r="D72" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G72" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B73" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C60" s="6">
+      <c r="C73" s="1">
         <v>0.02</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D73" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E60" t="s">
-        <v>14</v>
-      </c>
-      <c r="F60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="E73" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B74" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="6">
+      <c r="C74" s="1">
         <v>0.51</v>
       </c>
-      <c r="D61" t="s">
-        <v>76</v>
-      </c>
-      <c r="E61" t="s">
-        <v>14</v>
-      </c>
-      <c r="F61" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="D74" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G74" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B75" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C62">
-        <v>1</v>
-      </c>
-      <c r="D62" t="s">
+      <c r="C75" s="1">
+        <v>1</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E75" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F62" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" t="s">
+      <c r="F75" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G75" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B76" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="C76" s="1">
+        <v>1</v>
+      </c>
+      <c r="D76" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E76" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F63" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" t="s">
+      <c r="F76" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G76" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B77" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C64" s="6">
+      <c r="C77" s="1">
         <v>8</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D77" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E64" t="s">
-        <v>14</v>
-      </c>
-      <c r="F64" t="s">
-        <v>89</v>
-      </c>
-      <c r="G64" t="s">
+      <c r="E77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G77" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B79" s="2" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B81" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="B82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+      <c r="B83" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B84" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B73" t="s">
-        <v>1</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E86" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F86" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G86" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" t="str">
-        <f>B66</f>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="str">
+        <f>B79</f>
         <v>inductor, other production</v>
       </c>
-      <c r="B74" t="str">
-        <f>B67</f>
+      <c r="B87" s="1" t="str">
+        <f>B80</f>
         <v>inductor, other</v>
       </c>
-      <c r="C74">
-        <v>1</v>
-      </c>
-      <c r="D74" t="str">
-        <f>B70</f>
+      <c r="C87" s="1">
+        <v>1</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f>B83</f>
         <v>kilogram</v>
       </c>
-      <c r="E74" t="str">
-        <f>B68</f>
+      <c r="E87" s="1" t="str">
+        <f>B81</f>
         <v>RER</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F87" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B88" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C75" s="6">
+      <c r="C88" s="1">
         <v>0.46</v>
       </c>
-      <c r="D75" t="s">
-        <v>76</v>
-      </c>
-      <c r="E75" t="s">
-        <v>14</v>
-      </c>
-      <c r="F75" t="s">
-        <v>89</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="D88" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B89" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C76" s="6">
+      <c r="C89" s="1">
         <v>0.43</v>
       </c>
-      <c r="D76" t="s">
-        <v>76</v>
-      </c>
-      <c r="E76" t="s">
-        <v>14</v>
-      </c>
-      <c r="F76" t="s">
-        <v>89</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="D89" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B90" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C77" s="6">
+      <c r="C90" s="1">
         <v>0.04</v>
       </c>
-      <c r="D77" t="s">
-        <v>76</v>
-      </c>
-      <c r="E77" t="s">
-        <v>14</v>
-      </c>
-      <c r="F77" t="s">
-        <v>89</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="D90" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G90" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B91" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C78" s="6">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>76</v>
-      </c>
-      <c r="E78" t="s">
-        <v>14</v>
-      </c>
-      <c r="F78" t="s">
-        <v>89</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="C91" s="1">
+        <v>1</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G91" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B92" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C79" s="6">
+      <c r="C92" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D79" t="s">
-        <v>76</v>
-      </c>
-      <c r="E79" t="s">
-        <v>14</v>
-      </c>
-      <c r="F79" t="s">
-        <v>89</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="D92" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B93" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C80" s="6">
+      <c r="C93" s="1">
         <v>0.43</v>
       </c>
-      <c r="D80" t="s">
-        <v>76</v>
-      </c>
-      <c r="E80" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80" t="s">
-        <v>89</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="D93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G93" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B95" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B97" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="B98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B86" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
+      <c r="B99" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B100" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="3" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C89" s="3" t="s">
+      <c r="B102" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="3" t="s">
+      <c r="D102" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E89" s="3" t="s">
+      <c r="E102" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F89" s="3" t="s">
+      <c r="F102" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G102" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="str">
-        <f>B82</f>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="str">
+        <f>B95</f>
         <v>housing assembly for home storage system</v>
       </c>
-      <c r="B90" t="str">
-        <f>B83</f>
+      <c r="B103" s="1" t="str">
+        <f>B96</f>
         <v>housing for home storage system</v>
       </c>
-      <c r="C90">
-        <v>1</v>
-      </c>
-      <c r="D90" t="str">
-        <f>B86</f>
+      <c r="C103" s="1">
+        <v>1</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f>B99</f>
         <v>kilogram</v>
       </c>
-      <c r="E90" t="str">
-        <f>B84</f>
+      <c r="E103" s="1" t="str">
+        <f>B97</f>
         <v>RER</v>
       </c>
-      <c r="F90" t="s">
+      <c r="F103" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B104" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C91" s="6">
+      <c r="C104" s="1">
         <v>0.997</v>
       </c>
-      <c r="D91" t="s">
-        <v>76</v>
-      </c>
-      <c r="E91" t="s">
-        <v>14</v>
-      </c>
-      <c r="F91" t="s">
-        <v>89</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="D104" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G104" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B105" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C92" s="6">
+      <c r="C105" s="1">
         <v>0.997</v>
       </c>
-      <c r="D92" t="s">
-        <v>76</v>
-      </c>
-      <c r="E92" t="s">
-        <v>14</v>
-      </c>
-      <c r="F92" t="s">
-        <v>89</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="D105" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G105" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B106" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C93" s="6">
+      <c r="C106" s="1">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="D93" t="s">
-        <v>76</v>
-      </c>
-      <c r="E93" t="s">
-        <v>14</v>
-      </c>
-      <c r="F93" t="s">
-        <v>89</v>
-      </c>
-      <c r="G93" t="s">
+      <c r="D106" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G106" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B107" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C94" s="6">
+      <c r="C107" s="1">
         <v>0.2</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D107" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E107" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F94" t="s">
-        <v>89</v>
-      </c>
-      <c r="G94" t="s">
+      <c r="F107" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G107" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B108" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C95" s="6">
+      <c r="C108" s="1">
         <v>0.1</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D108" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E108" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F95" t="s">
-        <v>89</v>
-      </c>
-      <c r="G95" t="s">
+      <c r="F108" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G108" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A97" s="3" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B110" s="2" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B112" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B100">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
+      <c r="B113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B101" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
+      <c r="B114" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B115" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A104" s="3" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C104" s="3" t="s">
+      <c r="B117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="3" t="s">
+      <c r="D117" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E104" s="3" t="s">
+      <c r="E117" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F104" s="3" t="s">
+      <c r="F117" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G117" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A105" t="str">
-        <f>B97</f>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="str">
+        <f>B110</f>
         <v>inverter production for home storage system</v>
       </c>
-      <c r="B105" t="str">
-        <f>B98</f>
+      <c r="B118" s="1" t="str">
+        <f>B111</f>
         <v>inverter for home storage system</v>
       </c>
-      <c r="C105">
-        <v>1</v>
-      </c>
-      <c r="D105" t="str">
-        <f>B101</f>
+      <c r="C118" s="1">
+        <v>1</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f>B114</f>
         <v>kilogram</v>
       </c>
-      <c r="E105" t="str">
-        <f>B99</f>
+      <c r="E118" s="1" t="str">
+        <f>B112</f>
         <v>RER</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F118" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B119" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C106" s="6">
+      <c r="C119" s="1">
         <v>0.06</v>
       </c>
-      <c r="D106" t="s">
-        <v>76</v>
-      </c>
-      <c r="E106" t="s">
-        <v>14</v>
-      </c>
-      <c r="F106" t="s">
-        <v>89</v>
-      </c>
-      <c r="G106" t="s">
+      <c r="D119" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G119" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B120" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C107" s="6">
+      <c r="C120" s="1">
         <v>0.01</v>
       </c>
-      <c r="D107" t="s">
-        <v>76</v>
-      </c>
-      <c r="E107" t="s">
-        <v>14</v>
-      </c>
-      <c r="F107" t="s">
-        <v>89</v>
-      </c>
-      <c r="G107" t="s">
+      <c r="D120" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G120" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B121" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C108" s="6">
+      <c r="C121" s="1">
         <v>0.03</v>
       </c>
-      <c r="D108" t="s">
-        <v>76</v>
-      </c>
-      <c r="E108" t="s">
-        <v>14</v>
-      </c>
-      <c r="F108" t="s">
-        <v>89</v>
-      </c>
-      <c r="G108" t="s">
+      <c r="D121" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G121" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="6">
+      <c r="C122" s="1">
         <v>0.04</v>
       </c>
-      <c r="D109" t="s">
-        <v>76</v>
-      </c>
-      <c r="E109" t="s">
-        <v>14</v>
-      </c>
-      <c r="F109" t="s">
-        <v>89</v>
-      </c>
-      <c r="G109" t="s">
+      <c r="D122" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G122" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B123" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C110" s="6">
+      <c r="C123" s="1">
         <v>0.01</v>
       </c>
-      <c r="D110" t="s">
-        <v>76</v>
-      </c>
-      <c r="E110" t="s">
-        <v>14</v>
-      </c>
-      <c r="F110" t="s">
-        <v>89</v>
-      </c>
-      <c r="G110" t="s">
+      <c r="D123" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G123" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B124" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C111" s="6">
+      <c r="C124" s="1">
         <v>0.27</v>
       </c>
-      <c r="D111" t="s">
-        <v>76</v>
-      </c>
-      <c r="E111" t="s">
+      <c r="D124" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F111" t="s">
-        <v>89</v>
-      </c>
-      <c r="G111" t="s">
+      <c r="F124" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G124" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B125" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C112" s="6">
+      <c r="C125" s="1">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="D112" t="s">
-        <v>76</v>
-      </c>
-      <c r="E112" t="s">
-        <v>14</v>
-      </c>
-      <c r="F112" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
+      <c r="D125" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B126" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C113" s="6">
+      <c r="C126" s="1">
         <v>0.05</v>
       </c>
-      <c r="D113" t="s">
-        <v>76</v>
-      </c>
-      <c r="E113" t="s">
-        <v>14</v>
-      </c>
-      <c r="F113" t="s">
-        <v>89</v>
-      </c>
-      <c r="G113" t="s">
+      <c r="D126" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G126" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B127" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C114" s="6">
+      <c r="C127" s="1">
         <v>0.45</v>
       </c>
-      <c r="D114" t="s">
-        <v>76</v>
-      </c>
-      <c r="E114" t="s">
-        <v>14</v>
-      </c>
-      <c r="F114" t="s">
-        <v>89</v>
-      </c>
-      <c r="G114" t="s">
+      <c r="D127" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G127" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B128" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C115" s="6">
+      <c r="C128" s="1">
         <v>0.02</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D128" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E115" t="s">
-        <v>14</v>
-      </c>
-      <c r="F115" t="s">
-        <v>89</v>
-      </c>
-      <c r="G115" t="s">
+      <c r="E128" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G128" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B129" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C116" s="6">
+      <c r="C129" s="1">
         <v>0.45</v>
       </c>
-      <c r="D116" t="s">
-        <v>76</v>
-      </c>
-      <c r="E116" t="s">
-        <v>14</v>
-      </c>
-      <c r="F116" t="s">
-        <v>89</v>
-      </c>
-      <c r="G116" t="s">
+      <c r="D129" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G129" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B130" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" t="s">
+      <c r="C130" s="1">
+        <v>1</v>
+      </c>
+      <c r="D130" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E130" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F117" t="s">
-        <v>89</v>
-      </c>
-      <c r="G117" t="s">
+      <c r="F130" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G130" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B131" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C118">
-        <v>1</v>
-      </c>
-      <c r="D118" t="s">
+      <c r="C131" s="1">
+        <v>1</v>
+      </c>
+      <c r="D131" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E131" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F118" t="s">
-        <v>89</v>
-      </c>
-      <c r="G118" t="s">
+      <c r="F131" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G131" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B132" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C119" s="6">
+      <c r="C132" s="1">
         <v>8</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D132" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E119" t="s">
-        <v>14</v>
-      </c>
-      <c r="F119" t="s">
-        <v>89</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="E132" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G132" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A121" s="3" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B134" s="2" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>1</v>
-      </c>
-      <c r="B122" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B136" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B124">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
+      <c r="B137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B125" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
+      <c r="B138" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B139" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A128" s="3" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B128" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C128" s="3" t="s">
+      <c r="B141" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C141" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="3" t="s">
+      <c r="D141" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="3" t="s">
+      <c r="E141" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F128" s="3" t="s">
+      <c r="F141" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G141" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A129" t="str">
-        <f>B121</f>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="str">
+        <f>B134</f>
         <v>cell module production, LFP, for home storage system</v>
       </c>
-      <c r="B129" t="str">
-        <f>B122</f>
+      <c r="B142" s="1" t="str">
+        <f>B135</f>
         <v>cell module, LFP, for home storage system</v>
       </c>
-      <c r="C129">
-        <v>1</v>
-      </c>
-      <c r="D129" t="str">
-        <f>B125</f>
+      <c r="C142" s="1">
+        <v>1</v>
+      </c>
+      <c r="D142" s="1" t="str">
+        <f>B138</f>
         <v>kilogram</v>
       </c>
-      <c r="E129" t="str">
-        <f>B123</f>
+      <c r="E142" s="1" t="str">
+        <f>B136</f>
         <v>RER</v>
       </c>
-      <c r="F129" t="s">
+      <c r="F142" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B143" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C130" s="6">
+      <c r="C143" s="1">
         <v>0.03</v>
       </c>
-      <c r="D130" t="s">
-        <v>76</v>
-      </c>
-      <c r="E130" t="s">
+      <c r="D143" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E143" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F130" t="s">
-        <v>89</v>
-      </c>
-      <c r="G130" t="s">
+      <c r="F143" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G143" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B144" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C131" s="6">
+      <c r="C144" s="1">
         <v>0.63</v>
       </c>
-      <c r="D131" t="s">
-        <v>76</v>
-      </c>
-      <c r="E131" t="s">
-        <v>14</v>
-      </c>
-      <c r="F131" t="s">
-        <v>89</v>
-      </c>
-      <c r="G131" t="s">
+      <c r="D144" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G144" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B145" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C132" s="6">
+      <c r="C145" s="1">
         <v>0.34</v>
       </c>
-      <c r="D132" t="s">
-        <v>76</v>
-      </c>
-      <c r="E132" t="s">
-        <v>14</v>
-      </c>
-      <c r="F132" t="s">
-        <v>89</v>
-      </c>
-      <c r="G132" t="s">
+      <c r="D145" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G145" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B146" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C133" s="6">
+      <c r="C146" s="1">
         <v>0.34</v>
       </c>
-      <c r="D133" t="s">
-        <v>76</v>
-      </c>
-      <c r="E133" t="s">
-        <v>14</v>
-      </c>
-      <c r="F133" t="s">
-        <v>89</v>
-      </c>
-      <c r="G133" t="s">
+      <c r="D146" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G146" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B147" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C134">
-        <v>1</v>
-      </c>
-      <c r="D134" t="s">
+      <c r="C147" s="1">
+        <v>1</v>
+      </c>
+      <c r="D147" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E134" t="s">
+      <c r="E147" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F134" t="s">
-        <v>89</v>
-      </c>
-      <c r="G134" t="s">
+      <c r="F147" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G147" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B148" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C135">
-        <v>1</v>
-      </c>
-      <c r="D135" t="s">
+      <c r="C148" s="1">
+        <v>1</v>
+      </c>
+      <c r="D148" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E135" t="s">
+      <c r="E148" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F135" t="s">
-        <v>89</v>
-      </c>
-      <c r="G135" t="s">
+      <c r="F148" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G148" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B149" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C136" s="6">
+      <c r="C149" s="1">
         <v>8</v>
       </c>
-      <c r="D136" t="s">
+      <c r="D149" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E136" t="s">
-        <v>14</v>
-      </c>
-      <c r="F136" t="s">
-        <v>89</v>
-      </c>
-      <c r="G136" t="s">
+      <c r="E149" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G149" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B151" s="2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>1</v>
-      </c>
-      <c r="B139" t="s">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B152" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B153" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A141" t="s">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A142" t="s">
+      <c r="B154" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B142" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A143" t="s">
+      <c r="B155" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B156" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A144" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A145" s="3" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A158" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C145" s="3" t="s">
+      <c r="B158" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C158" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="3" t="s">
+      <c r="D158" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E145" s="3" t="s">
+      <c r="E158" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F145" s="3" t="s">
+      <c r="F158" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G145" s="3" t="s">
+      <c r="G158" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A146" t="str">
-        <f>B138</f>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="str">
+        <f>B151</f>
         <v>cell module production, NMC811, for home storage system</v>
       </c>
-      <c r="B146" t="str">
-        <f>B139</f>
+      <c r="B159" s="1" t="str">
+        <f>B152</f>
         <v>cell module, NMC811, for home storage system</v>
       </c>
-      <c r="C146">
-        <v>1</v>
-      </c>
-      <c r="D146" t="str">
-        <f>B142</f>
+      <c r="C159" s="1">
+        <v>1</v>
+      </c>
+      <c r="D159" s="1" t="str">
+        <f>B155</f>
         <v>kilogram</v>
       </c>
-      <c r="E146" t="str">
-        <f>B140</f>
+      <c r="E159" s="1" t="str">
+        <f>B153</f>
         <v>RER</v>
       </c>
-      <c r="F146" t="s">
+      <c r="F159" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A147" t="s">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B160" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C147" s="6">
+      <c r="C160" s="1">
         <v>0.03</v>
       </c>
-      <c r="D147" t="s">
-        <v>76</v>
-      </c>
-      <c r="E147" t="s">
+      <c r="D160" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E160" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F147" t="s">
-        <v>89</v>
-      </c>
-      <c r="G147" t="s">
+      <c r="F160" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G160" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B161" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C148" s="6">
+      <c r="C161" s="1">
         <v>0.63</v>
       </c>
-      <c r="D148" t="s">
-        <v>76</v>
-      </c>
-      <c r="E148" t="s">
-        <v>14</v>
-      </c>
-      <c r="F148" t="s">
-        <v>89</v>
-      </c>
-      <c r="G148" t="s">
+      <c r="D161" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G161" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B162" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C149" s="6">
+      <c r="C162" s="1">
         <v>0.34</v>
       </c>
-      <c r="D149" t="s">
-        <v>76</v>
-      </c>
-      <c r="E149" t="s">
-        <v>14</v>
-      </c>
-      <c r="F149" t="s">
-        <v>89</v>
-      </c>
-      <c r="G149" t="s">
+      <c r="D162" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G162" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B163" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C150" s="6">
+      <c r="C163" s="1">
         <v>0.34</v>
       </c>
-      <c r="D150" t="s">
-        <v>76</v>
-      </c>
-      <c r="E150" t="s">
-        <v>14</v>
-      </c>
-      <c r="F150" t="s">
-        <v>89</v>
-      </c>
-      <c r="G150" t="s">
+      <c r="D163" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G163" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B164" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C151">
-        <v>1</v>
-      </c>
-      <c r="D151" t="s">
+      <c r="C164" s="1">
+        <v>1</v>
+      </c>
+      <c r="D164" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E151" t="s">
+      <c r="E164" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F151" t="s">
-        <v>89</v>
-      </c>
-      <c r="G151" t="s">
+      <c r="F164" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G164" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A152" t="s">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B165" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C152">
-        <v>1</v>
-      </c>
-      <c r="D152" t="s">
+      <c r="C165" s="1">
+        <v>1</v>
+      </c>
+      <c r="D165" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E152" t="s">
+      <c r="E165" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F152" t="s">
-        <v>89</v>
-      </c>
-      <c r="G152" t="s">
+      <c r="F165" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G165" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A153" t="s">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B166" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C153" s="6">
+      <c r="C166" s="1">
         <v>8</v>
       </c>
-      <c r="D153" t="s">
+      <c r="D166" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E153" t="s">
-        <v>14</v>
-      </c>
-      <c r="F153" t="s">
-        <v>89</v>
-      </c>
-      <c r="G153" t="s">
+      <c r="E166" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G166" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A168" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B168" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A156" t="s">
-        <v>1</v>
-      </c>
-      <c r="B156" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B169" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A157" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B170" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A158" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A159" t="s">
+      <c r="B171" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B159" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A160" t="s">
+      <c r="B172" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A161" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C162" s="3" t="s">
+      <c r="B175" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C175" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D162" s="3" t="s">
+      <c r="D175" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E162" s="3" t="s">
+      <c r="E175" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F162" s="3" t="s">
+      <c r="F175" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G162" s="3" t="s">
+      <c r="G175" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A163" t="str">
-        <f>B155</f>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="str">
+        <f>B168</f>
         <v>battery module system production</v>
       </c>
-      <c r="B163" t="str">
-        <f>B156</f>
+      <c r="B176" s="1" t="str">
+        <f>B169</f>
         <v>battery module system for home storage system module</v>
       </c>
-      <c r="C163" s="4">
-        <v>1</v>
-      </c>
-      <c r="D163" t="str">
-        <f>B159</f>
+      <c r="C176" s="1">
+        <v>1</v>
+      </c>
+      <c r="D176" s="1" t="str">
+        <f>B172</f>
         <v>kilogram</v>
       </c>
-      <c r="E163" t="str">
-        <f>B157</f>
+      <c r="E176" s="1" t="str">
+        <f>B170</f>
         <v>RER</v>
       </c>
-      <c r="F163" s="4" t="s">
+      <c r="F176" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="G163" s="4"/>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A164" t="s">
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B177" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C164" s="6">
+      <c r="C177" s="1">
         <v>0.64</v>
       </c>
-      <c r="D164" t="s">
-        <v>76</v>
-      </c>
-      <c r="E164" t="s">
-        <v>14</v>
-      </c>
-      <c r="F164" t="s">
-        <v>89</v>
-      </c>
-      <c r="G164" t="s">
+      <c r="D177" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G177" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A165" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B178" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C165" s="6">
+      <c r="C178" s="1">
         <v>0.03</v>
       </c>
-      <c r="D165" t="s">
-        <v>76</v>
-      </c>
-      <c r="E165" t="s">
-        <v>14</v>
-      </c>
-      <c r="F165" t="s">
-        <v>89</v>
-      </c>
-      <c r="G165" t="s">
+      <c r="D178" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G178" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A166" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B179" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C166" s="6">
+      <c r="C179" s="1">
         <v>0.03</v>
       </c>
-      <c r="D166" t="s">
-        <v>76</v>
-      </c>
-      <c r="E166" t="s">
-        <v>14</v>
-      </c>
-      <c r="F166" t="s">
-        <v>89</v>
-      </c>
-      <c r="G166" t="s">
+      <c r="D179" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G179" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A167" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B180" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C167" s="6">
+      <c r="C180" s="1">
         <v>0.64</v>
       </c>
-      <c r="D167" t="s">
-        <v>76</v>
-      </c>
-      <c r="E167" t="s">
-        <v>14</v>
-      </c>
-      <c r="F167" t="s">
-        <v>89</v>
-      </c>
-      <c r="G167" t="s">
+      <c r="D180" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G180" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A168" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B181" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C168" s="6">
+      <c r="C181" s="1">
         <v>0.09</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D181" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E168" t="s">
-        <v>14</v>
-      </c>
-      <c r="F168" t="s">
-        <v>89</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="E181" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G181" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A169" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A182" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B182" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C169" s="6">
+      <c r="C182" s="1">
         <v>0.2</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D182" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E182" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F169" t="s">
-        <v>89</v>
-      </c>
-      <c r="G169" t="s">
+      <c r="F182" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G182" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A170" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A183" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B183" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C170" s="6">
+      <c r="C183" s="1">
         <v>0.1</v>
       </c>
-      <c r="D170" t="s">
+      <c r="D183" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E170" t="s">
+      <c r="E183" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F170" t="s">
-        <v>89</v>
-      </c>
-      <c r="G170" t="s">
+      <c r="F183" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G183" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A172" s="3" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A185" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B185" s="2" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A173" t="s">
-        <v>1</v>
-      </c>
-      <c r="B173" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A186" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A174" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A187" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B187" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A175" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B175">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A176" t="s">
+      <c r="B188" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A189" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B176" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A177" t="s">
+      <c r="B189" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B190" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A178" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A179" s="3" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A192" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B179" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C179" s="3" t="s">
+      <c r="B192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C192" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="3" t="s">
+      <c r="D192" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="3" t="s">
+      <c r="E192" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F179" s="3" t="s">
+      <c r="F192" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="G192" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A180" t="str">
-        <f>B172</f>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="str">
+        <f>B185</f>
         <v>system controller production, for home storage system</v>
       </c>
-      <c r="B180" t="str">
-        <f>B173</f>
+      <c r="B193" s="1" t="str">
+        <f>B186</f>
         <v>system controller, for home storage system</v>
       </c>
-      <c r="C180">
-        <v>1</v>
-      </c>
-      <c r="D180" t="str">
-        <f>B176</f>
+      <c r="C193" s="1">
+        <v>1</v>
+      </c>
+      <c r="D193" s="1" t="str">
+        <f>B189</f>
         <v>kilogram</v>
       </c>
-      <c r="E180" t="str">
-        <f>B174</f>
+      <c r="E193" s="1" t="str">
+        <f>B187</f>
         <v>RER</v>
       </c>
-      <c r="F180" t="s">
+      <c r="F193" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A181" s="4" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A194" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B181" s="4" t="s">
+      <c r="B194" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C181" s="6">
+      <c r="C194" s="1">
         <v>0.17</v>
       </c>
-      <c r="D181" t="s">
-        <v>76</v>
-      </c>
-      <c r="E181" t="s">
+      <c r="D194" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E194" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F181" t="s">
-        <v>89</v>
-      </c>
-      <c r="G181" t="s">
+      <c r="F194" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G194" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A182" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A195" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B195" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C182" s="6">
+      <c r="C195" s="1">
         <v>0.32</v>
       </c>
-      <c r="D182" t="s">
-        <v>76</v>
-      </c>
-      <c r="E182" t="s">
-        <v>14</v>
-      </c>
-      <c r="F182" t="s">
-        <v>89</v>
-      </c>
-      <c r="G182" t="s">
+      <c r="D195" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G195" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A183" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B196" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C183" s="6">
+      <c r="C196" s="1">
         <v>0.44</v>
       </c>
-      <c r="D183" t="s">
-        <v>76</v>
-      </c>
-      <c r="E183" t="s">
-        <v>14</v>
-      </c>
-      <c r="F183" t="s">
-        <v>89</v>
-      </c>
-      <c r="G183" t="s">
+      <c r="D196" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G196" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A184" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B197" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C184" s="6">
+      <c r="C197" s="1">
         <v>0.03</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D197" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E184" t="s">
-        <v>14</v>
-      </c>
-      <c r="F184" t="s">
-        <v>89</v>
-      </c>
-      <c r="G184" t="s">
+      <c r="E197" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G197" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A185" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A198" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B198" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C185" s="6">
+      <c r="C198" s="1">
         <v>0.44</v>
       </c>
-      <c r="D185" t="s">
-        <v>76</v>
-      </c>
-      <c r="E185" t="s">
-        <v>14</v>
-      </c>
-      <c r="F185" t="s">
-        <v>89</v>
-      </c>
-      <c r="G185" t="s">
+      <c r="D198" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G198" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A186" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B199" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C186" s="6">
+      <c r="C199" s="1">
         <v>0.02</v>
       </c>
-      <c r="D186" t="s">
-        <v>76</v>
-      </c>
-      <c r="E186" t="s">
-        <v>14</v>
-      </c>
-      <c r="F186" t="s">
-        <v>89</v>
-      </c>
-      <c r="G186" t="s">
+      <c r="D199" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G199" s="1" t="s">
         <v>74</v>
       </c>
     </row>
